--- a/insullin.xlsx
+++ b/insullin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\인공지능\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\인공지능\fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F53A9F-28C3-462B-A8BB-7209FDE994F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA047C2-BCD8-4A30-BD63-2E998F7D5236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7188" yWindow="528" windowWidth="9840" windowHeight="11364" xr2:uid="{A8540245-1FC1-F74E-B528-1186D598F798}"/>
+    <workbookView xWindow="2952" yWindow="264" windowWidth="9840" windowHeight="11364" xr2:uid="{A8540245-1FC1-F74E-B528-1186D598F798}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -428,12 +428,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -441,12 +439,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,20)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(5,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -454,12 +450,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -467,12 +461,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -480,12 +472,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -493,12 +483,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -506,12 +494,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -519,12 +505,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -532,11 +516,9 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -545,12 +527,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -558,11 +538,9 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -571,12 +549,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -584,12 +560,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -597,12 +571,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -610,12 +582,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -623,11 +593,9 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -636,12 +604,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -649,12 +615,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -662,12 +626,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -675,11 +637,9 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -688,12 +648,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -701,12 +659,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -714,12 +670,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -727,12 +681,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -740,12 +692,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -753,11 +703,9 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -766,12 +714,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -779,12 +725,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -792,12 +736,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -805,12 +747,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -818,12 +758,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -831,12 +769,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -844,12 +780,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -857,12 +791,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -870,12 +802,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -883,12 +813,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -896,12 +824,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -909,12 +835,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -922,11 +846,9 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -935,12 +857,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -948,12 +868,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -961,12 +879,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -974,12 +890,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -987,12 +901,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1000,12 +912,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1013,12 +923,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1026,12 +934,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1039,12 +945,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1052,12 +956,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1065,12 +967,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1078,12 +978,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1091,12 +989,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1104,11 +1000,9 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1117,11 +1011,9 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -1130,11 +1022,9 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1143,11 +1033,9 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -1156,12 +1044,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -1169,12 +1055,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -1182,12 +1066,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -1195,12 +1077,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1208,12 +1088,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -1221,12 +1099,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -1234,12 +1110,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -1247,12 +1121,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -1260,11 +1132,9 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1273,12 +1143,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B101" ca="1" si="2">RANDBETWEEN(0,20)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" ca="1" si="3">RANDBETWEEN(5,10)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -1286,11 +1154,9 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1299,12 +1165,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -1312,12 +1176,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -1325,12 +1187,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -1338,12 +1198,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -1351,12 +1209,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -1364,11 +1220,9 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -1377,12 +1231,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -1390,11 +1242,9 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1403,12 +1253,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -1416,12 +1264,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -1429,11 +1275,9 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -1442,12 +1286,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -1455,12 +1297,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -1468,11 +1308,9 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1481,12 +1319,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -1494,12 +1330,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -1507,12 +1341,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -1520,11 +1352,9 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1533,12 +1363,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -1546,11 +1374,9 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -1559,12 +1385,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -1572,12 +1396,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -1585,12 +1407,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -1598,12 +1418,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -1611,12 +1429,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -1624,12 +1440,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -1637,12 +1451,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -1650,12 +1462,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -1663,12 +1473,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -1676,11 +1484,9 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -1689,12 +1495,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -1702,12 +1506,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -1715,12 +1517,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
